--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B2_SPC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B2_SPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B464D1CE-1E10-4165-B593-9B68E463AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B8261-9331-45B1-984E-8B27BB1B65ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9770" yWindow="680" windowWidth="17740" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="43160" yWindow="1640" windowWidth="13090" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Scenario</t>
   </si>
@@ -79,9 +79,6 @@
     <t>R_required</t>
   </si>
   <si>
-    <t>DesiredSNR</t>
-  </si>
-  <si>
     <t>FidPlanet</t>
   </si>
   <si>
@@ -112,15 +109,9 @@
     <t>CalibrationFile</t>
   </si>
   <si>
-    <t>MultiPurposeMode</t>
-  </si>
-  <si>
     <t>StrayLightFRNfile</t>
   </si>
   <si>
-    <t>DRM_IMG_NF_B1</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -185,6 +176,18 @@
   </si>
   <si>
     <t>RefStar_ExoZodi_Xsolar</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>NN2</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1762,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1797,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1805,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1818,23 +1821,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>3</v>
@@ -1842,7 +1845,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="17">
         <v>0.90900000000000003</v>
@@ -1850,7 +1853,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="19">
         <v>2</v>
@@ -1858,7 +1861,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20">
         <v>0.05</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -1874,138 +1877,138 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="20">
-        <v>2.363</v>
+      <c r="B17" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="19">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2.363</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="18">
-        <v>0.25</v>
+        <v>34</v>
+      </c>
+      <c r="B20" s="19">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="19">
-        <v>2.2599999999999998</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="19">
-        <v>3</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="19">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="19">
         <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2013,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2031,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{7DF0D321-4420-4638-8023-0A26BB138C44}">
       <formula1>StrayLightFiles</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{8B37C42F-FE7B-4BE8-86A4-1F18F4DD13F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{8B37C42F-FE7B-4BE8-86A4-1F18F4DD13F9}">
       <formula1>ThroughputModels</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{C1E430E7-A235-47C1-BD9C-8CB3C3305484}">
@@ -2037,7 +2040,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{CE42A4EE-5E0F-47F8-AB0E-C7A3AD430455}">
       <formula1>DetectorQEModels</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26" xr:uid="{EE821BA8-1C49-48CB-9437-B57B9A0A9DD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27" xr:uid="{EE821BA8-1C49-48CB-9437-B57B9A0A9DD9}">
       <formula1>ContrastStability</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{53F4B51B-A56D-4C67-8E4F-597DAAA1F118}">

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B2_SPC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B2_SPC.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B8261-9331-45B1-984E-8B27BB1B65ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF5843-0D39-4EFB-A896-67B1F930F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43160" yWindow="1640" windowWidth="13090" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Calibrations">'[1]Files List'!$B$21:$B$34</definedName>
@@ -58,9 +59,6 @@
     <t>BW</t>
   </si>
   <si>
-    <t>OperatingMode</t>
-  </si>
-  <si>
     <t>QE_e2v_Spec</t>
   </si>
   <si>
@@ -112,9 +110,6 @@
     <t>StrayLightFRNfile</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>Fiducial HLC B1</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
     <t>DRM SPEC Band 2</t>
   </si>
   <si>
-    <t>SPC_Amici_SPEC</t>
-  </si>
-  <si>
     <t>CS_SPC_SPEC_201026</t>
   </si>
   <si>
@@ -188,6 +180,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>OPMODE_IMG_SPEC</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1763,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,12 +1777,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="10">
         <v>730</v>
@@ -1797,23 +1798,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12">
         <v>21</v>
@@ -1821,31 +1822,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="17">
         <v>0.90900000000000003</v>
@@ -1853,7 +1854,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="19">
         <v>2</v>
@@ -1861,7 +1862,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="20">
         <v>0.05</v>
@@ -1869,7 +1870,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -1877,15 +1878,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
@@ -1893,23 +1894,23 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="20">
         <v>2.363</v>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="19">
         <v>23</v>
@@ -1925,7 +1926,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="19">
         <v>22</v>
@@ -1933,7 +1934,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="18">
         <v>0.25</v>
@@ -1941,15 +1942,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="19">
         <v>2.2599999999999998</v>
@@ -1957,7 +1958,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="19">
         <v>3</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="19">
         <v>10</v>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="19">
         <v>1</v>
@@ -1981,42 +1982,42 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2024,10 +2025,7 @@
     <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="20"/>
     <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{98EC65C1-9538-4E1A-AAA5-AFC8A180F08A}">
-      <formula1>OperatingModeList</formula1>
-    </dataValidation>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{7DF0D321-4420-4638-8023-0A26BB138C44}">
       <formula1>StrayLightFiles</formula1>
     </dataValidation>
@@ -2053,4 +2051,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E826426-465A-4215-8B4B-F56CEC7E808A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>